--- a/output/fit_clients/fit_round_432.xlsx
+++ b/output/fit_clients/fit_round_432.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2094081635.717826</v>
+        <v>2005114732.480324</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07946815086008627</v>
+        <v>0.07709783965196691</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03727816272180244</v>
+        <v>0.03292046320162925</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1047040826.209751</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2411875382.546065</v>
+        <v>2463257624.948842</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1542451278348645</v>
+        <v>0.1754636507943318</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04171317252278658</v>
+        <v>0.04651946215438012</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1205937795.135445</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4089204470.364899</v>
+        <v>4101344637.020249</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1225841689248535</v>
+        <v>0.1282906451614194</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02395067046497813</v>
+        <v>0.03528377088191267</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>156</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2044602255.693853</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3271541735.051942</v>
+        <v>3453474597.938256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06991498437149697</v>
+        <v>0.1011588128118169</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05042088836602013</v>
+        <v>0.04911955515075243</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>159</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1635770919.404299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2458802665.416213</v>
+        <v>2612985764.947306</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1327430031145543</v>
+        <v>0.1418402306867407</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05262375403865901</v>
+        <v>0.04506051500196012</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1229401312.666808</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2732286572.893375</v>
+        <v>3125835648.820394</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06450780097492648</v>
+        <v>0.07012535047322616</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03057508217666303</v>
+        <v>0.04138855233742422</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>135</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1366143277.098593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2489051170.172259</v>
+        <v>2912612565.17522</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1659451673018012</v>
+        <v>0.1730111369311277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0335459786858476</v>
+        <v>0.02105507908618037</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>137</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1244525590.380406</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1471368266.71682</v>
+        <v>1729170401.407004</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1433790934912839</v>
+        <v>0.1671327265832937</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02736587610109589</v>
+        <v>0.02582093682742896</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>735684233.3288937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3686954675.642793</v>
+        <v>4079657097.438396</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1602383310569473</v>
+        <v>0.1370876187071908</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03758851751392892</v>
+        <v>0.04936286973567307</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>182</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1843477335.468008</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3205264342.277061</v>
+        <v>2650097083.774895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1681610815587236</v>
+        <v>0.1743500314352738</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04239693619301237</v>
+        <v>0.03148768898642817</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>178</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1602632128.384993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2830810795.370487</v>
+        <v>2751309900.756853</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1668624797241195</v>
+        <v>0.170373218249371</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03942855150241033</v>
+        <v>0.03627355097887081</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>148</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1415405400.224373</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3289571442.39561</v>
+        <v>3722372477.8634</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07331302472013163</v>
+        <v>0.09554459083492722</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03123933714887436</v>
+        <v>0.03035793180172899</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>145</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1644785812.227134</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3044829693.290413</v>
+        <v>3481489157.797472</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1299561423668296</v>
+        <v>0.1700310577830075</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04200019996532885</v>
+        <v>0.02669556459440166</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>139</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1522414877.853285</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1737672953.945568</v>
+        <v>1524588759.798846</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08213914438253364</v>
+        <v>0.106035442043234</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03260228015014879</v>
+        <v>0.04813250022239623</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>868836616.3800877</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131449296.008782</v>
+        <v>2770170844.067481</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1124809844309256</v>
+        <v>0.1137299921100769</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04345249591146264</v>
+        <v>0.04208732728370197</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>90</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1065724711.76122</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4949928386.03638</v>
+        <v>4282116188.580503</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1658658979484465</v>
+        <v>0.1733155466783203</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04255160168581725</v>
+        <v>0.03776316588864823</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>126</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2474964180.674445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3827597767.615135</v>
+        <v>2454613841.886675</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1219540143847013</v>
+        <v>0.1238824632966484</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02753724071955022</v>
+        <v>0.02116638218644317</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>141</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1913798854.121922</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1081539147.842968</v>
+        <v>903146527.6020042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1401959688792355</v>
+        <v>0.1637152927560356</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01710194857481792</v>
+        <v>0.02407745612625262</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>540769623.0280155</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1922736915.147947</v>
+        <v>2352414207.927969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1575722113923196</v>
+        <v>0.1172033553739907</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02894957548356683</v>
+        <v>0.02632974310487534</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>60</v>
-      </c>
-      <c r="J20" t="n">
-        <v>961368492.1778327</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2634985301.440008</v>
+        <v>1815792473.008</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09045541048980051</v>
+        <v>0.09727337600560719</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04523634751732241</v>
+        <v>0.04198720665391077</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1317492625.961523</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3526780507.508616</v>
+        <v>3502446849.065707</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1115957642986263</v>
+        <v>0.1222099230596624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05679611559897381</v>
+        <v>0.03650703286864275</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>120</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1763390283.760093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1443535903.866784</v>
+        <v>1100387993.960356</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1449535858345996</v>
+        <v>0.1130054815038306</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0357734974067932</v>
+        <v>0.03688296318295108</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>721767947.4002749</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2521930132.442021</v>
+        <v>3041003142.332544</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1059271265510338</v>
+        <v>0.09280205698983707</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02523876554381647</v>
+        <v>0.03476912890875686</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>127</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1260965133.622374</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>944348911.7135179</v>
+        <v>1056538723.580314</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09701648508073267</v>
+        <v>0.1226779506214001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02579840801964549</v>
+        <v>0.02194204635996374</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>472174532.6534748</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>879080980.6004683</v>
+        <v>1070989908.870245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09557624694925726</v>
+        <v>0.1029218868388321</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03590292519693951</v>
+        <v>0.0242603873242932</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>439540432.7794353</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3812939553.562935</v>
+        <v>3699515995.311091</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1440572903337384</v>
+        <v>0.1357169869239963</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02511756809422483</v>
+        <v>0.01793664273804145</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1906469796.22317</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3871683689.964028</v>
+        <v>3027724510.972035</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1290749878824598</v>
+        <v>0.1005511691510727</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0458434151794566</v>
+        <v>0.04814830079341006</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>139</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1935841931.883419</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4016326611.092199</v>
+        <v>4462043924.274612</v>
       </c>
       <c r="F29" t="n">
-        <v>0.108501926523112</v>
+        <v>0.1002693774074777</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04342191241842916</v>
+        <v>0.03204964150186664</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>191</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2008163321.259918</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2317507571.670776</v>
+        <v>2351604488.742322</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1301890094233264</v>
+        <v>0.09053604519624298</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02624769109262269</v>
+        <v>0.03300230549734606</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1158753859.474035</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1319799583.684362</v>
+        <v>1457474703.594551</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09997635236209124</v>
+        <v>0.06883247226480643</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04725464738354176</v>
+        <v>0.04207001457738416</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>659899715.1291035</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1236905096.170296</v>
+        <v>1899098471.336902</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1166367563234416</v>
+        <v>0.09301345484788744</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02357884701138558</v>
+        <v>0.03004375847513893</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>618452561.9734759</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1898619356.122912</v>
+        <v>2251696007.598911</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1916145869257577</v>
+        <v>0.1671349651962773</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0393776092028803</v>
+        <v>0.04994432147667542</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>133</v>
-      </c>
-      <c r="J33" t="n">
-        <v>949309767.5034225</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1075842587.723261</v>
+        <v>1139823152.936893</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1193373494332901</v>
+        <v>0.09609298009150537</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02455731699146326</v>
+        <v>0.02039042225302993</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>537921319.2633508</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1021749028.028949</v>
+        <v>941737722.8248625</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09894113740865243</v>
+        <v>0.0890528966492309</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04062382794972558</v>
+        <v>0.03887707253759536</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>510874527.8308626</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2824777767.893869</v>
+        <v>2357133311.117818</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1409427157540238</v>
+        <v>0.1278740899743948</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02089590485210605</v>
+        <v>0.02511774335128576</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>109</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1412388879.919558</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2002439165.980478</v>
+        <v>2702445696.90661</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07262577704604156</v>
+        <v>0.07303188877636144</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03431544514200224</v>
+        <v>0.03738363998941993</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>117</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1001219610.659399</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1410791107.237399</v>
+        <v>1692219687.851249</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07476996469348945</v>
+        <v>0.1190127310132737</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03146273502826182</v>
+        <v>0.02755558366794112</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>705395615.5009943</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2039853139.847316</v>
+        <v>2110042914.855317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1511999716369893</v>
+        <v>0.1442899443861875</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02069719330708516</v>
+        <v>0.02757113986864099</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1019926558.462407</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1235743010.855629</v>
+        <v>1278896219.503134</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1613801981350091</v>
+        <v>0.1448455500356259</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0532151623860442</v>
+        <v>0.04171874989668343</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>617871537.7736607</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2623013374.78804</v>
+        <v>2573363571.766103</v>
       </c>
       <c r="F41" t="n">
-        <v>0.145071895716609</v>
+        <v>0.1533941466469192</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03357333476302021</v>
+        <v>0.04620351407272234</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>108</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1311506700.692581</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4297197299.175872</v>
+        <v>2685494152.402635</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1192281578755535</v>
+        <v>0.07878930737537874</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03074038360487568</v>
+        <v>0.04431004399815046</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>140</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2148598699.3277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2320186906.208539</v>
+        <v>2377579779.21878</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2026896001914381</v>
+        <v>0.194807971396374</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01997124825267459</v>
+        <v>0.0191205047316565</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>149</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1160093519.86541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2060961096.659131</v>
+        <v>1787525239.094534</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07576349071820149</v>
+        <v>0.1016142177583195</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02844502708486691</v>
+        <v>0.03143958334058489</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1030480666.83654</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1878811804.186261</v>
+        <v>2204586830.336919</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1717144395325816</v>
+        <v>0.1533333496403579</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04278601075900668</v>
+        <v>0.05269149427918347</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>939405880.8033768</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5545963574.918199</v>
+        <v>3640406478.045475</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1411450296301827</v>
+        <v>0.1505499003012243</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0607403381180738</v>
+        <v>0.03811523610159898</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>154</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2772981845.53394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4619376368.936646</v>
+        <v>4224817255.098368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1504493914343527</v>
+        <v>0.1324545617659486</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04928947567213122</v>
+        <v>0.04137733974218957</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>116</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2309688218.754719</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3718150532.636004</v>
+        <v>3431800084.871301</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06839163535409255</v>
+        <v>0.09131502074748837</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02626206012083911</v>
+        <v>0.03227367331820366</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>142</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1859075317.073242</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1757178628.337517</v>
+        <v>1471871293.589116</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1506919806158923</v>
+        <v>0.144278060337562</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04328382419566335</v>
+        <v>0.03982263015340172</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>878589306.2156603</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3817850862.039116</v>
+        <v>3289314039.418828</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1573921693325137</v>
+        <v>0.1095879176280249</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04363831131803801</v>
+        <v>0.03505337424250946</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>148</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1908925432.686392</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1488071837.795423</v>
+        <v>1479749236.454716</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1940819643274516</v>
+        <v>0.1327151937160529</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05240653361944544</v>
+        <v>0.03697090642411217</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>744035923.7698708</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3896336533.724366</v>
+        <v>3869104151.433354</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1000488537446533</v>
+        <v>0.08658409365399924</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06072003381644694</v>
+        <v>0.05595968963183191</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>178</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1948168329.458019</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3209021351.163041</v>
+        <v>3287553319.377788</v>
       </c>
       <c r="F53" t="n">
-        <v>0.159883989636089</v>
+        <v>0.1562628661522913</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02275268849355436</v>
+        <v>0.03492725861760856</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>123</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1604510693.567032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4531781018.300505</v>
+        <v>3512543688.35693</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1318653716067285</v>
+        <v>0.1226611759678515</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03547346790434417</v>
+        <v>0.04476380357614816</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>140</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2265890615.014139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3023699747.807106</v>
+        <v>4967451449.982287</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1471822303278976</v>
+        <v>0.195132483404821</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03090340170426563</v>
+        <v>0.0318397320515078</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1511849805.77285</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1645641272.112533</v>
+        <v>1252444753.18222</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1621732115212269</v>
+        <v>0.1385385088084126</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05375031644486223</v>
+        <v>0.0381278171176565</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>822820656.749988</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4144490977.35156</v>
+        <v>4337116412.35134</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1211723012048176</v>
+        <v>0.1398825348473873</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02585161243543763</v>
+        <v>0.02470903555411143</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>138</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2072245589.192508</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1270584757.276643</v>
+        <v>1300949685.192338</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1928936553317051</v>
+        <v>0.1612684767039343</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03265160795065108</v>
+        <v>0.03888525444393071</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>635292430.7373517</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4383295430.481437</v>
+        <v>4279701442.106578</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1023378971415238</v>
+        <v>0.09420997001332339</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03918305109463956</v>
+        <v>0.04735988913128247</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>119</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2191647672.701224</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3296528734.585561</v>
+        <v>2988198386.168446</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1522716371368667</v>
+        <v>0.1550563487238024</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03265849352813457</v>
+        <v>0.02787083110477163</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>134</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1648264468.764111</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2276960996.608972</v>
+        <v>3403529410.926275</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1719956896862053</v>
+        <v>0.1102260730576799</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03162793158463931</v>
+        <v>0.03241346125121327</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>148</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1138480546.972165</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1937992579.426506</v>
+        <v>1936352005.376029</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1837283529983943</v>
+        <v>0.1686011541074972</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04096982787850078</v>
+        <v>0.03335785614396177</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>968996338.4947634</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5493290186.64379</v>
+        <v>3585279368.042192</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1064286913451431</v>
+        <v>0.08920709914882198</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03442626561360998</v>
+        <v>0.03977916297709182</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2746645089.072291</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5095070108.60076</v>
+        <v>3705171139.71994</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1648775829972473</v>
+        <v>0.1532320592117342</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03462584521694169</v>
+        <v>0.02883266180135891</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>134</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2547535167.206417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4391078502.38393</v>
+        <v>5282092414.38563</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1653745886784515</v>
+        <v>0.1475650775820186</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02313298445051337</v>
+        <v>0.01955089895009667</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>155</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2195539246.465719</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4322901880.036435</v>
+        <v>4699386738.508013</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1556081929069609</v>
+        <v>0.1311299711301437</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04104197794962296</v>
+        <v>0.04547824626490007</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>126</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2161450930.890109</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2824414232.302803</v>
+        <v>3417408266.429298</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07587334676374137</v>
+        <v>0.06994351959847347</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05045942176686383</v>
+        <v>0.04586120223922732</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>138</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1412207149.330367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5857017885.429711</v>
+        <v>5145485847.935843</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1535302972192425</v>
+        <v>0.1048091451658098</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04168508043396583</v>
+        <v>0.05103479436600572</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>137</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2928509051.056318</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2327179433.234579</v>
+        <v>2114914595.317266</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1653223265369138</v>
+        <v>0.1631761873212913</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0528854242153704</v>
+        <v>0.04998350854695593</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1163589763.893289</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3480453421.870972</v>
+        <v>3442984538.596355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08237161932738385</v>
+        <v>0.1028640715919726</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04624724713756446</v>
+        <v>0.04823260624333536</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>123</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1740226719.219498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3957186625.91525</v>
+        <v>4588763931.625561</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1592752348932284</v>
+        <v>0.1430230530050134</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02992460058613109</v>
+        <v>0.02666606153231897</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>157</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1978593340.815603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2000984862.284294</v>
+        <v>1867822413.713726</v>
       </c>
       <c r="F72" t="n">
-        <v>0.074809106913622</v>
+        <v>0.09711218631071977</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05217954450425216</v>
+        <v>0.04285636278170404</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1000492377.363406</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2260574057.320328</v>
+        <v>2843302937.997311</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07354637622700515</v>
+        <v>0.07773344119859092</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04187484725433773</v>
+        <v>0.04730647294946966</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>164</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1130287092.375882</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3984540330.538146</v>
+        <v>3076742857.066355</v>
       </c>
       <c r="F74" t="n">
-        <v>0.166823975251296</v>
+        <v>0.1821960239614972</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02666864906878887</v>
+        <v>0.02172431903310933</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>147</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1992270145.535454</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1601960045.565828</v>
+        <v>2254202912.584853</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1671653053316154</v>
+        <v>0.1523000742813483</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02432092343233544</v>
+        <v>0.03082040088125658</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>800980024.3633107</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4992546850.186945</v>
+        <v>3749046385.670269</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1215967953102514</v>
+        <v>0.1043751206522996</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02972088601279769</v>
+        <v>0.0215792335881257</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>107</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2496273451.459613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1535623256.683033</v>
+        <v>2053978896.93996</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1755985035047305</v>
+        <v>0.1867818802004673</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02425047898353983</v>
+        <v>0.02119819048484133</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>767811621.2960005</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3524942575.18089</v>
+        <v>4463293898.312729</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1000548557566028</v>
+        <v>0.1188196309467875</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05473431425667937</v>
+        <v>0.05150251660454341</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>150</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1762471287.348039</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1833485433.299663</v>
+        <v>1665787379.237341</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1255179044374122</v>
+        <v>0.1703556819336654</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03310272595595558</v>
+        <v>0.03319672177581134</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>916742809.1775728</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5099565270.645664</v>
+        <v>5395145490.888808</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06752585716967627</v>
+        <v>0.08867175227078115</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03629650200197909</v>
+        <v>0.02395401944775452</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2549782689.518621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3347108824.305556</v>
+        <v>4650187795.302868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09426204678281318</v>
+        <v>0.1126794702119948</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03251732959000958</v>
+        <v>0.02860611133951199</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1673554351.127364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4260980694.234697</v>
+        <v>4245437787.306243</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1928034990466974</v>
+        <v>0.187480124472323</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02915065460404168</v>
+        <v>0.02479850994211737</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>151</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2130490372.325118</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1688597170.203768</v>
+        <v>2028187454.473296</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1229324546436433</v>
+        <v>0.1095631927357107</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04115705170399134</v>
+        <v>0.03254638020854621</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>844298531.7006726</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1786222620.360695</v>
+        <v>2386698445.402813</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1007288426505902</v>
+        <v>0.07870692522444472</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05235939582715695</v>
+        <v>0.04838909143404817</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>893111346.5572864</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3304820179.084232</v>
+        <v>2400131384.335298</v>
       </c>
       <c r="F85" t="n">
-        <v>0.135119537981803</v>
+        <v>0.1158046174767934</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04333268514337273</v>
+        <v>0.03707935790290516</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>163</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1652410183.36467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1759208681.285005</v>
+        <v>2673823237.939516</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1665032152535882</v>
+        <v>0.152424358220546</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01785353577221156</v>
+        <v>0.01890506903046313</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>879604334.8082331</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1327514355.697052</v>
+        <v>1374971224.514919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1677555486737465</v>
+        <v>0.1219522409122654</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03560996797504072</v>
+        <v>0.03794325049460287</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>663757266.1276189</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3648691051.66457</v>
+        <v>2575777722.10649</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1745002448398243</v>
+        <v>0.1687225253106774</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03656174105024507</v>
+        <v>0.03303753221473877</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>171</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1824345620.421411</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3110518383.977409</v>
+        <v>3008980188.793254</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1470876429172723</v>
+        <v>0.1204615539722106</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0395677133506829</v>
+        <v>0.03626569176413836</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>145</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1555259222.028186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1647034035.030314</v>
+        <v>1473817830.525811</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1141720083793677</v>
+        <v>0.1031152672013566</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04495427873580642</v>
+        <v>0.0484047628244258</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>823517023.1745063</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1829809921.589257</v>
+        <v>1992558143.685853</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1600130868287657</v>
+        <v>0.1784826554164288</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05359244585602001</v>
+        <v>0.04182304404170702</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>914904955.7549487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2023029282.142327</v>
+        <v>2533524009.439785</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07945813705626646</v>
+        <v>0.0890554204824187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03229477596269457</v>
+        <v>0.02920418277679105</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>121</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1011514589.051503</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3235991645.313532</v>
+        <v>4364022575.633286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111968209558632</v>
+        <v>0.110127691869875</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05444256867739594</v>
+        <v>0.03926992359609198</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1617995872.710711</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2420069712.875445</v>
+        <v>1950132837.624818</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1259827209270125</v>
+        <v>0.1600831140689146</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03021515641263961</v>
+        <v>0.03081009584638855</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1210034909.451904</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2479994304.304571</v>
+        <v>3001022984.414228</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08786855410792693</v>
+        <v>0.1212922728486355</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05301980058058278</v>
+        <v>0.04785651830007758</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>104</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1239997189.699206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2401955567.836695</v>
+        <v>2379666801.728981</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1051608190380549</v>
+        <v>0.1362180585144358</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03834136158106304</v>
+        <v>0.04093000852921226</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1200977728.001469</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5318888429.627025</v>
+        <v>4733867759.868487</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1364577497311146</v>
+        <v>0.115075273085258</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02666462785998207</v>
+        <v>0.02622310332003569</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>139</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2659444377.269643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3407405264.065386</v>
+        <v>3641842981.977053</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09224103025492125</v>
+        <v>0.1294788839314494</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02856827042313939</v>
+        <v>0.02333323106228248</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>118</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1703702644.355969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3346889219.699601</v>
+        <v>2558593110.785111</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1301841029305319</v>
+        <v>0.09434968215261291</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02319005449880628</v>
+        <v>0.02239554618652763</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>135</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1673444620.934433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4733362309.176441</v>
+        <v>3070053919.094827</v>
       </c>
       <c r="F100" t="n">
-        <v>0.13340054032638</v>
+        <v>0.1422279714905372</v>
       </c>
       <c r="G100" t="n">
-        <v>0.026290144050935</v>
+        <v>0.02034269318327232</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>134</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2366681283.825094</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3259231576.904249</v>
+        <v>2853153750.31714</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2079682014739296</v>
+        <v>0.1638331981102771</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03926546786162706</v>
+        <v>0.04473866163909469</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>176</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1629615911.75959</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_432.xlsx
+++ b/output/fit_clients/fit_round_432.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2005114732.480324</v>
+        <v>1593775381.672943</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07709783965196691</v>
+        <v>0.07198267780814208</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03292046320162925</v>
+        <v>0.03914793894098753</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2463257624.948842</v>
+        <v>2042135219.841279</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1754636507943318</v>
+        <v>0.1147584355939483</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04651946215438012</v>
+        <v>0.03752494429428008</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4101344637.020249</v>
+        <v>5037973087.382398</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1282906451614194</v>
+        <v>0.1019679087442785</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03528377088191267</v>
+        <v>0.03277927383404649</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3453474597.938256</v>
+        <v>3132750199.045858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1011588128118169</v>
+        <v>0.1044911271456665</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04911955515075243</v>
+        <v>0.03163697915506324</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2612985764.947306</v>
+        <v>2473329318.197034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1418402306867407</v>
+        <v>0.1409678054183604</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04506051500196012</v>
+        <v>0.05103758678951125</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3125835648.820394</v>
+        <v>2971402820.328931</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07012535047322616</v>
+        <v>0.06145265328781653</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04138855233742422</v>
+        <v>0.03301683046883427</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2912612565.17522</v>
+        <v>3950072600.005465</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1730111369311277</v>
+        <v>0.1986016145403048</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02105507908618037</v>
+        <v>0.02729065025611215</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1729170401.407004</v>
+        <v>1487220340.542595</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1671327265832937</v>
+        <v>0.1732921219221577</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02582093682742896</v>
+        <v>0.03118820552444203</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4079657097.438396</v>
+        <v>3795574149.465853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1370876187071908</v>
+        <v>0.208510339346534</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04936286973567307</v>
+        <v>0.0343389664870615</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2650097083.774895</v>
+        <v>3994443201.714498</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1743500314352738</v>
+        <v>0.1269491719587919</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03148768898642817</v>
+        <v>0.04503538465212353</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,16 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2751309900.756853</v>
+        <v>2449741726.000888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.170373218249371</v>
+        <v>0.1336796232401458</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03627355097887081</v>
+        <v>0.03460405241934993</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3722372477.8634</v>
+        <v>3361994705.235022</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09554459083492722</v>
+        <v>0.07656431749884986</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03035793180172899</v>
+        <v>0.02522327831237725</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3481489157.797472</v>
+        <v>3375801584.724344</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1700310577830075</v>
+        <v>0.1181087918173669</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02669556459440166</v>
+        <v>0.03830598954031218</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1524588759.798846</v>
+        <v>1766652796.907572</v>
       </c>
       <c r="F15" t="n">
-        <v>0.106035442043234</v>
+        <v>0.07660647036103084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04813250022239623</v>
+        <v>0.04180838786022287</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2770170844.067481</v>
+        <v>2855931802.840698</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1137299921100769</v>
+        <v>0.1051631542826176</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04208732728370197</v>
+        <v>0.0474052701341415</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4282116188.580503</v>
+        <v>3796558242.639947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1733155466783203</v>
+        <v>0.1408708370211248</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03776316588864823</v>
+        <v>0.0490189599163889</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2454613841.886675</v>
+        <v>3763401856.685037</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1238824632966484</v>
+        <v>0.1183111724196441</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02116638218644317</v>
+        <v>0.02568457629531054</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>903146527.6020042</v>
+        <v>1209349680.282029</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1637152927560356</v>
+        <v>0.1851603177133472</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02407745612625262</v>
+        <v>0.02030508809414486</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2352414207.927969</v>
+        <v>1781960343.426515</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1172033553739907</v>
+        <v>0.147347815661281</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02632974310487534</v>
+        <v>0.0270731437414678</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1815792473.008</v>
+        <v>2294052614.413409</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09727337600560719</v>
+        <v>0.08272744994939464</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04198720665391077</v>
+        <v>0.03212114152911242</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3502446849.065707</v>
+        <v>3358291041.996414</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1222099230596624</v>
+        <v>0.1381417457450697</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03650703286864275</v>
+        <v>0.03781856407878926</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1100387993.960356</v>
+        <v>1098426842.620579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1130054815038306</v>
+        <v>0.1686687428330567</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03688296318295108</v>
+        <v>0.04478845385650632</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3041003142.332544</v>
+        <v>2521069608.390773</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09280205698983707</v>
+        <v>0.0938947857382222</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03476912890875686</v>
+        <v>0.02617566245480538</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1056538723.580314</v>
+        <v>1278690361.731753</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1226779506214001</v>
+        <v>0.1022835541810519</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02194204635996374</v>
+        <v>0.01951580033826728</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1070989908.870245</v>
+        <v>920555462.7961628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029218868388321</v>
+        <v>0.1220574419962174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0242603873242932</v>
+        <v>0.03062444615354319</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3699515995.311091</v>
+        <v>3804208626.176119</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1357169869239963</v>
+        <v>0.1035356335469645</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01793664273804145</v>
+        <v>0.01876569154801858</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3027724510.972035</v>
+        <v>3858276771.784042</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1005511691510727</v>
+        <v>0.1354435539715574</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04814830079341006</v>
+        <v>0.0357868839498717</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4462043924.274612</v>
+        <v>3593323322.383427</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1002693774074777</v>
+        <v>0.1119060013002002</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03204964150186664</v>
+        <v>0.03510657159009281</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2351604488.742322</v>
+        <v>1992003168.949927</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09053604519624298</v>
+        <v>0.1025370775799488</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03300230549734606</v>
+        <v>0.02868052504748511</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1457474703.594551</v>
+        <v>1315856649.640073</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06883247226480643</v>
+        <v>0.09836992882383244</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04207001457738416</v>
+        <v>0.04610809073640407</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1899098471.336902</v>
+        <v>1412369128.165154</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09301345484788744</v>
+        <v>0.09741286090036276</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03004375847513893</v>
+        <v>0.038733622721922</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2251696007.598911</v>
+        <v>2681992577.550836</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1671349651962773</v>
+        <v>0.1820141865213422</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04994432147667542</v>
+        <v>0.05667209186654916</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1139823152.936893</v>
+        <v>1391143277.714695</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09609298009150537</v>
+        <v>0.07839450099862842</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02039042225302993</v>
+        <v>0.01762394442895641</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>941737722.8248625</v>
+        <v>964406278.4242024</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0890528966492309</v>
+        <v>0.1132935062208725</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03887707253759536</v>
+        <v>0.03433608032840537</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2357133311.117818</v>
+        <v>2302378736.195386</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1278740899743948</v>
+        <v>0.1143300003957323</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02511774335128576</v>
+        <v>0.02775856082654947</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2702445696.90661</v>
+        <v>1960464462.738234</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07303188877636144</v>
+        <v>0.09964454993352487</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03738363998941993</v>
+        <v>0.0296904247701671</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1692219687.851249</v>
+        <v>1493725706.538249</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1190127310132737</v>
+        <v>0.09193982608556704</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02755558366794112</v>
+        <v>0.02535209182703365</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2110042914.855317</v>
+        <v>2111097666.511652</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1442899443861875</v>
+        <v>0.1829320326626018</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02757113986864099</v>
+        <v>0.02435537848589902</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1278896219.503134</v>
+        <v>1259382231.722387</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1448455500356259</v>
+        <v>0.1605771193542516</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04171874989668343</v>
+        <v>0.05476833770860774</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2573363571.766103</v>
+        <v>1873375648.636984</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1533941466469192</v>
+        <v>0.1536966292757777</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04620351407272234</v>
+        <v>0.04668198997022405</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2685494152.402635</v>
+        <v>3296056296.786208</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07878930737537874</v>
+        <v>0.1147038785573616</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04431004399815046</v>
+        <v>0.04604414136587007</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2377579779.21878</v>
+        <v>2892569228.129117</v>
       </c>
       <c r="F43" t="n">
-        <v>0.194807971396374</v>
+        <v>0.1484618954044175</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0191205047316565</v>
+        <v>0.02150488598130466</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1787525239.094534</v>
+        <v>2240229198.839371</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1016142177583195</v>
+        <v>0.06232851081126654</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03143958334058489</v>
+        <v>0.02418748285358276</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2204586830.336919</v>
+        <v>1975195087.235249</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1533333496403579</v>
+        <v>0.1869426668484933</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05269149427918347</v>
+        <v>0.05221115972636714</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3640406478.045475</v>
+        <v>3648955180.992097</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1505499003012243</v>
+        <v>0.1676280423259936</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03811523610159898</v>
+        <v>0.05153185486544412</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4224817255.098368</v>
+        <v>4419636149.540205</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1324545617659486</v>
+        <v>0.1237892131877072</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04137733974218957</v>
+        <v>0.04092055237982242</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3431800084.871301</v>
+        <v>3213270002.209059</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09131502074748837</v>
+        <v>0.0677015636074315</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03227367331820366</v>
+        <v>0.0366366989094609</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1471871293.589116</v>
+        <v>1386632094.596062</v>
       </c>
       <c r="F49" t="n">
-        <v>0.144278060337562</v>
+        <v>0.1400341152168507</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03982263015340172</v>
+        <v>0.03774216354421556</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3289314039.418828</v>
+        <v>2752888018.762071</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1095879176280249</v>
+        <v>0.1726992539169635</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03505337424250946</v>
+        <v>0.04969082678828615</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1479749236.454716</v>
+        <v>1277871417.591262</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1327151937160529</v>
+        <v>0.1913403615085532</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03697090642411217</v>
+        <v>0.03921652851127575</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3869104151.433354</v>
+        <v>4356472604.106053</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08658409365399924</v>
+        <v>0.1228833321699611</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05595968963183191</v>
+        <v>0.04349900417965444</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3287553319.377788</v>
+        <v>2560968997.245024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1562628661522913</v>
+        <v>0.1316611256437037</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03492725861760856</v>
+        <v>0.02270264066448708</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3512543688.35693</v>
+        <v>3105113866.772394</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1226611759678515</v>
+        <v>0.1416720356094208</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04476380357614816</v>
+        <v>0.03194493838696728</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4967451449.982287</v>
+        <v>4963881593.752172</v>
       </c>
       <c r="F55" t="n">
-        <v>0.195132483404821</v>
+        <v>0.2085640978683333</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0318397320515078</v>
+        <v>0.02295567362610472</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1252444753.18222</v>
+        <v>1181316277.418843</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1385385088084126</v>
+        <v>0.1535591527170227</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0381278171176565</v>
+        <v>0.04008556772994079</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4337116412.35134</v>
+        <v>3043259725.481995</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1398825348473873</v>
+        <v>0.1345798249579868</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02470903555411143</v>
+        <v>0.02302844561968378</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1300949685.192338</v>
+        <v>1268844022.961427</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1612684767039343</v>
+        <v>0.1549135615419971</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03888525444393071</v>
+        <v>0.03269619575634201</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4279701442.106578</v>
+        <v>5114905738.159555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09420997001332339</v>
+        <v>0.09035400008999804</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04735988913128247</v>
+        <v>0.04491526225323825</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2988198386.168446</v>
+        <v>2895483793.755707</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1550563487238024</v>
+        <v>0.1497908162878929</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02787083110477163</v>
+        <v>0.03204458899022671</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3403529410.926275</v>
+        <v>2897185294.540399</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1102260730576799</v>
+        <v>0.1438132767643764</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03241346125121327</v>
+        <v>0.02336419357856397</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1936352005.376029</v>
+        <v>1849790779.415186</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1686011541074972</v>
+        <v>0.1626199334299595</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03335785614396177</v>
+        <v>0.04388176599925381</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3585279368.042192</v>
+        <v>5507245040.291656</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08920709914882198</v>
+        <v>0.09622852907216549</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03977916297709182</v>
+        <v>0.02912182368132585</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3705171139.71994</v>
+        <v>5321796296.059084</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1532320592117342</v>
+        <v>0.1895430106037508</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02883266180135891</v>
+        <v>0.02793662571110647</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5282092414.38563</v>
+        <v>5992784350.44431</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1475650775820186</v>
+        <v>0.1172418973620566</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01955089895009667</v>
+        <v>0.02467006035139715</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4699386738.508013</v>
+        <v>4453654743.741412</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1311299711301437</v>
+        <v>0.1363278231416416</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04547824626490007</v>
+        <v>0.03082589199596068</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3417408266.429298</v>
+        <v>3490854024.623494</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06994351959847347</v>
+        <v>0.0949070072040326</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04586120223922732</v>
+        <v>0.04773420719792157</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5145485847.935843</v>
+        <v>4531151648.184973</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1048091451658098</v>
+        <v>0.1298355036814692</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05103479436600572</v>
+        <v>0.03595148078589708</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2114914595.317266</v>
+        <v>2355943818.890642</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1631761873212913</v>
+        <v>0.1655511980352773</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04998350854695593</v>
+        <v>0.05555586830674797</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3442984538.596355</v>
+        <v>2553563736.851851</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1028640715919726</v>
+        <v>0.06541744125183575</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04823260624333536</v>
+        <v>0.03620273143614139</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4588763931.625561</v>
+        <v>4383612377.239009</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1430230530050134</v>
+        <v>0.1706816521750722</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02666606153231897</v>
+        <v>0.02964322014631649</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1867822413.713726</v>
+        <v>2240861187.501167</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09711218631071977</v>
+        <v>0.07724091680903938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04285636278170404</v>
+        <v>0.04508215391776214</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2843302937.997311</v>
+        <v>3033207243.971665</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07773344119859092</v>
+        <v>0.09706893056691256</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04730647294946966</v>
+        <v>0.03493701998123305</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3076742857.066355</v>
+        <v>2899092182.775092</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1821960239614972</v>
+        <v>0.1471895901198377</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02172431903310933</v>
+        <v>0.03049509314330056</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2254202912.584853</v>
+        <v>1508259442.607875</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1523000742813483</v>
+        <v>0.1334271262188842</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03082040088125658</v>
+        <v>0.02977868557409125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3749046385.670269</v>
+        <v>4987536777.472019</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1043751206522996</v>
+        <v>0.08371476688526307</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0215792335881257</v>
+        <v>0.03008272583775926</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2053978896.93996</v>
+        <v>2012939761.81233</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1867818802004673</v>
+        <v>0.1566663306302148</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02119819048484133</v>
+        <v>0.02847913094422604</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4463293898.312729</v>
+        <v>2939186915.941317</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1188196309467875</v>
+        <v>0.1364526172448781</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05150251660454341</v>
+        <v>0.04614845274345438</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1665787379.237341</v>
+        <v>1374259790.665159</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1703556819336654</v>
+        <v>0.1213727207800393</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03319672177581134</v>
+        <v>0.03880693471318281</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5395145490.888808</v>
+        <v>5116957487.632678</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08867175227078115</v>
+        <v>0.1101752833090667</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02395401944775452</v>
+        <v>0.02832239936600852</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4650187795.302868</v>
+        <v>4610727658.571565</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1126794702119948</v>
+        <v>0.1328604830877609</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02860611133951199</v>
+        <v>0.02508652546401965</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4245437787.306243</v>
+        <v>5327076585.523892</v>
       </c>
       <c r="F82" t="n">
-        <v>0.187480124472323</v>
+        <v>0.1505809018496405</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02479850994211737</v>
+        <v>0.02433520132138947</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2028187454.473296</v>
+        <v>2110432034.375912</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1095631927357107</v>
+        <v>0.1532109377962854</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03254638020854621</v>
+        <v>0.03228026124742461</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2386698445.402813</v>
+        <v>1703811160.544581</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07870692522444472</v>
+        <v>0.1180035473038617</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04838909143404817</v>
+        <v>0.04650324279631353</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2400131384.335298</v>
+        <v>2949746917.028383</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1158046174767934</v>
+        <v>0.137069059143765</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03707935790290516</v>
+        <v>0.04670390445751633</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2673823237.939516</v>
+        <v>1936412001.312565</v>
       </c>
       <c r="F86" t="n">
-        <v>0.152424358220546</v>
+        <v>0.1366326459446797</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01890506903046313</v>
+        <v>0.01964863818211341</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1374971224.514919</v>
+        <v>1437836531.826783</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1219522409122654</v>
+        <v>0.1857261274150591</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03794325049460287</v>
+        <v>0.04420852824182843</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2575777722.10649</v>
+        <v>3352124033.215887</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1687225253106774</v>
+        <v>0.1306097379689448</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03303753221473877</v>
+        <v>0.03332518034869499</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3008980188.793254</v>
+        <v>2666778036.392716</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1204615539722106</v>
+        <v>0.1041959224018116</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03626569176413836</v>
+        <v>0.02738213132068911</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1473817830.525811</v>
+        <v>1376151204.023865</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1031152672013566</v>
+        <v>0.09626335105079832</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0484047628244258</v>
+        <v>0.05012046520389603</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1992558143.685853</v>
+        <v>1581766301.389165</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1784826554164288</v>
+        <v>0.1895636846424397</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04182304404170702</v>
+        <v>0.05904294258156123</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2533524009.439785</v>
+        <v>1836740381.557831</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0890554204824187</v>
+        <v>0.09953039090762901</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02920418277679105</v>
+        <v>0.03349759519131434</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4364022575.633286</v>
+        <v>3912061680.281135</v>
       </c>
       <c r="F93" t="n">
-        <v>0.110127691869875</v>
+        <v>0.1162422487928712</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03926992359609198</v>
+        <v>0.04358076027799317</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1950132837.624818</v>
+        <v>1762358301.259009</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1600831140689146</v>
+        <v>0.1255146670546149</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03081009584638855</v>
+        <v>0.03859615055285775</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3001022984.414228</v>
+        <v>2851758702.032842</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1212922728486355</v>
+        <v>0.1077669180781412</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04785651830007758</v>
+        <v>0.05082271346639885</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2379666801.728981</v>
+        <v>2026771565.265218</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1362180585144358</v>
+        <v>0.09339764546798136</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04093000852921226</v>
+        <v>0.02872138026825566</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4733867759.868487</v>
+        <v>3417647448.447395</v>
       </c>
       <c r="F97" t="n">
-        <v>0.115075273085258</v>
+        <v>0.1317114489494846</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02622310332003569</v>
+        <v>0.02163405314878591</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3641842981.977053</v>
+        <v>3376200310.807738</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1294788839314494</v>
+        <v>0.1123306101947634</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02333323106228248</v>
+        <v>0.02914410901182455</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2558593110.785111</v>
+        <v>2698110869.277164</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09434968215261291</v>
+        <v>0.1034675715673688</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02239554618652763</v>
+        <v>0.02543653706646173</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3070053919.094827</v>
+        <v>4592048165.557104</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1422279714905372</v>
+        <v>0.1529738203156261</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02034269318327232</v>
+        <v>0.02279980719528401</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2853153750.31714</v>
+        <v>3574311001.881841</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1638331981102771</v>
+        <v>0.1549773364660078</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04473866163909469</v>
+        <v>0.03748205385341696</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_432.xlsx
+++ b/output/fit_clients/fit_round_432.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1593775381.672943</v>
+        <v>2203496883.637046</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07198267780814208</v>
+        <v>0.1124585519816732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03914793894098753</v>
+        <v>0.04125184850994038</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2042135219.841279</v>
+        <v>1822872206.521867</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1147584355939483</v>
+        <v>0.170918417828673</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03752494429428008</v>
+        <v>0.04295204451882883</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5037973087.382398</v>
+        <v>4394075078.834095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1019679087442785</v>
+        <v>0.1147456294441036</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03277927383404649</v>
+        <v>0.02571575322231878</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>219</v>
+      </c>
+      <c r="J4" t="n">
+        <v>431</v>
+      </c>
+      <c r="K4" t="n">
+        <v>38.09195927615377</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3132750199.045858</v>
+        <v>3969578875.909943</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1044911271456665</v>
+        <v>0.09052716216708689</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03163697915506324</v>
+        <v>0.03432042539989385</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>179</v>
+      </c>
+      <c r="J5" t="n">
+        <v>432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45.75494695467606</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2473329318.197034</v>
+        <v>2732801552.582432</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1409678054183604</v>
+        <v>0.09074539037706371</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05103758678951125</v>
+        <v>0.0404380610168007</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2971402820.328931</v>
+        <v>2625921215.590449</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06145265328781653</v>
+        <v>0.07889738299897292</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03301683046883427</v>
+        <v>0.03294488547959244</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3950072600.005465</v>
+        <v>3884509479.544743</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1986016145403048</v>
+        <v>0.1537828741240032</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02729065025611215</v>
+        <v>0.03346636796821235</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>116</v>
+      </c>
+      <c r="J8" t="n">
+        <v>432</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1487220340.542595</v>
+        <v>2033195016.257502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1732921219221577</v>
+        <v>0.1371361183603557</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03118820552444203</v>
+        <v>0.02294453136202747</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3795574149.465853</v>
+        <v>4163706944.306139</v>
       </c>
       <c r="F10" t="n">
-        <v>0.208510339346534</v>
+        <v>0.1363284578876386</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0343389664870615</v>
+        <v>0.04030205452901219</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>341</v>
+      </c>
+      <c r="J10" t="n">
+        <v>431</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.94892024892081</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3994443201.714498</v>
+        <v>3476947711.188107</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1269491719587919</v>
+        <v>0.1401495160552047</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04503538465212353</v>
+        <v>0.03400225112996845</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>177</v>
+      </c>
+      <c r="J11" t="n">
+        <v>432</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2449741726.000888</v>
+        <v>2679614948.471034</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1336796232401458</v>
+        <v>0.1489309316794717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03460405241934993</v>
+        <v>0.04145213462346393</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3361994705.235022</v>
+        <v>4998476913.270475</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07656431749884986</v>
+        <v>0.07210743412842767</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02522327831237725</v>
+        <v>0.02911435379129493</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>225</v>
+      </c>
+      <c r="J13" t="n">
+        <v>432</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3375801584.724344</v>
+        <v>3294904619.33383</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1181087918173669</v>
+        <v>0.167417983863208</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03830598954031218</v>
+        <v>0.04374286981232062</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>92</v>
+      </c>
+      <c r="J14" t="n">
+        <v>426</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1766652796.907572</v>
+        <v>1658971309.980177</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07660647036103084</v>
+        <v>0.1055405714490582</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04180838786022287</v>
+        <v>0.03764291190882389</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2855931802.840698</v>
+        <v>2457893231.059068</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1051631542826176</v>
+        <v>0.1028519766190697</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0474052701341415</v>
+        <v>0.03321960257834852</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3796558242.639947</v>
+        <v>3940073852.329813</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1408708370211248</v>
+        <v>0.1596800319898288</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0490189599163889</v>
+        <v>0.04047660150569309</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210</v>
+      </c>
+      <c r="J17" t="n">
+        <v>432</v>
+      </c>
+      <c r="K17" t="n">
+        <v>40.10646428434214</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3763401856.685037</v>
+        <v>3117446483.476185</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1183111724196441</v>
+        <v>0.1685444690989262</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02568457629531054</v>
+        <v>0.02159883790436767</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>111</v>
+      </c>
+      <c r="J18" t="n">
+        <v>427</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1209349680.282029</v>
+        <v>900798167.2755165</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1851603177133472</v>
+        <v>0.1494646313676258</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02030508809414486</v>
+        <v>0.02346619499436553</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1781960343.426515</v>
+        <v>1965808643.557083</v>
       </c>
       <c r="F20" t="n">
-        <v>0.147347815661281</v>
+        <v>0.1540335432990269</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0270731437414678</v>
+        <v>0.02096296075483179</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2294052614.413409</v>
+        <v>1835978633.582429</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08272744994939464</v>
+        <v>0.08089362254833581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03212114152911242</v>
+        <v>0.03451713767337125</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3358291041.996414</v>
+        <v>2443322914.819699</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1381417457450697</v>
+        <v>0.1271756227051713</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03781856407878926</v>
+        <v>0.04778159314099914</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>125</v>
+      </c>
+      <c r="J22" t="n">
+        <v>431</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19.3246487540561</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1098426842.620579</v>
+        <v>939262798.5828713</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1686687428330567</v>
+        <v>0.1216332412426921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04478845385650632</v>
+        <v>0.04028782833286594</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2521069608.390773</v>
+        <v>2902614304.487695</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0938947857382222</v>
+        <v>0.1458035676985746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02617566245480538</v>
+        <v>0.03497697898762019</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>137</v>
+      </c>
+      <c r="J24" t="n">
+        <v>429</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1278690361.731753</v>
+        <v>976170837.6738724</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1022835541810519</v>
+        <v>0.08959048743844646</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01951580033826728</v>
+        <v>0.02142315130954131</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>920555462.7961628</v>
+        <v>1347620390.365512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1220574419962174</v>
+        <v>0.09277530897526408</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03062444615354319</v>
+        <v>0.03729037858258848</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3804208626.176119</v>
+        <v>3472299548.520909</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1035356335469645</v>
+        <v>0.1301118868707012</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01876569154801858</v>
+        <v>0.02431641492088408</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>185</v>
+      </c>
+      <c r="J27" t="n">
+        <v>428</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3858276771.784042</v>
+        <v>2675796478.735544</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1354435539715574</v>
+        <v>0.111326976330331</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0357868839498717</v>
+        <v>0.04373343571319502</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>106</v>
+      </c>
+      <c r="J28" t="n">
+        <v>431</v>
+      </c>
+      <c r="K28" t="n">
+        <v>27.30283665546021</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3593323322.383427</v>
+        <v>4973368934.06634</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1119060013002002</v>
+        <v>0.1219489818143055</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03510657159009281</v>
+        <v>0.04418354530256187</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>357</v>
+      </c>
+      <c r="J29" t="n">
+        <v>431</v>
+      </c>
+      <c r="K29" t="n">
+        <v>37.5707059598477</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1992003168.949927</v>
+        <v>1931586145.931732</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1025370775799488</v>
+        <v>0.1370918493173365</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02868052504748511</v>
+        <v>0.02485508165794784</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1315856649.640073</v>
+        <v>1343163853.216347</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09836992882383244</v>
+        <v>0.08172892231201392</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04610809073640407</v>
+        <v>0.04035495601650291</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1412369128.165154</v>
+        <v>1145927539.355715</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09741286090036276</v>
+        <v>0.08863862384935024</v>
       </c>
       <c r="G32" t="n">
-        <v>0.038733622721922</v>
+        <v>0.02705160351598643</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2681992577.550836</v>
+        <v>2313202197.722105</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1820141865213422</v>
+        <v>0.2051847249726142</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05667209186654916</v>
+        <v>0.06082541469969178</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1391143277.714695</v>
+        <v>1155879512.283378</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07839450099862842</v>
+        <v>0.1174822455442832</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01762394442895641</v>
+        <v>0.01923770578706933</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>964406278.4242024</v>
+        <v>928918261.5671815</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1132935062208725</v>
+        <v>0.1078855132654359</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03433608032840537</v>
+        <v>0.04494092121307419</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2302378736.195386</v>
+        <v>2263239780.703115</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1143300003957323</v>
+        <v>0.1698269583380616</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02775856082654947</v>
+        <v>0.02023273202467895</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1960464462.738234</v>
+        <v>2418348531.637041</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09964454993352487</v>
+        <v>0.08101159969200936</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0296904247701671</v>
+        <v>0.03790836861822243</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1493725706.538249</v>
+        <v>1397648465.222148</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09193982608556704</v>
+        <v>0.1137773392176077</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02535209182703365</v>
+        <v>0.03138939116430913</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2111097666.511652</v>
+        <v>2073041462.655984</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1829320326626018</v>
+        <v>0.1439631447182716</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02435537848589902</v>
+        <v>0.02595426661456915</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1259382231.722387</v>
+        <v>1799942979.899729</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1605771193542516</v>
+        <v>0.1328019155543563</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05476833770860774</v>
+        <v>0.04653588088363768</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1880,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1873375648.636984</v>
+        <v>1925620064.362982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1536966292757777</v>
+        <v>0.1319274853715962</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04668198997022405</v>
+        <v>0.04479752935504788</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3296056296.786208</v>
+        <v>3524274521.076509</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1147038785573616</v>
+        <v>0.09242844791578676</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04604414136587007</v>
+        <v>0.03917872703947079</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>185</v>
+      </c>
+      <c r="J42" t="n">
+        <v>432</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2892569228.129117</v>
+        <v>2820149484.577153</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1484618954044175</v>
+        <v>0.1667103780728277</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02150488598130466</v>
+        <v>0.01812644652027151</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2240229198.839371</v>
+        <v>2348606924.246502</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06232851081126654</v>
+        <v>0.07023130061580801</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02418748285358276</v>
+        <v>0.02968064194557615</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1975195087.235249</v>
+        <v>2401326444.545752</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1869426668484933</v>
+        <v>0.1844380892900099</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05221115972636714</v>
+        <v>0.03561901620742984</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3648955180.992097</v>
+        <v>4793344594.010551</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1676280423259936</v>
+        <v>0.1354733822125503</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05153185486544412</v>
+        <v>0.04184459457810395</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>257</v>
+      </c>
+      <c r="J46" t="n">
+        <v>432</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4419636149.540205</v>
+        <v>4578282168.723286</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1237892131877072</v>
+        <v>0.1451962437492622</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04092055237982242</v>
+        <v>0.05764851609806025</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>194</v>
+      </c>
+      <c r="J47" t="n">
+        <v>431</v>
+      </c>
+      <c r="K47" t="n">
+        <v>39.72962205723125</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2127,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3213270002.209059</v>
+        <v>3122933686.019261</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0677015636074315</v>
+        <v>0.09540841337946929</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0366366989094609</v>
+        <v>0.02935909315571133</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>221</v>
+      </c>
+      <c r="J48" t="n">
+        <v>431</v>
+      </c>
+      <c r="K48" t="n">
+        <v>25.62308139695893</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1386632094.596062</v>
+        <v>1275266088.984886</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1400341152168507</v>
+        <v>0.1597700880177795</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03774216354421556</v>
+        <v>0.04135779246224894</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2752888018.762071</v>
+        <v>4167658534.446864</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1726992539169635</v>
+        <v>0.130294107474593</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04969082678828615</v>
+        <v>0.05239740839039721</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>151</v>
+      </c>
+      <c r="J50" t="n">
+        <v>432</v>
+      </c>
+      <c r="K50" t="n">
+        <v>45.52474169954868</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1277871417.591262</v>
+        <v>1485168686.747614</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1913403615085532</v>
+        <v>0.181022118712823</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03921652851127575</v>
+        <v>0.0541367979903246</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4356472604.106053</v>
+        <v>3737950331.74339</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1228833321699611</v>
+        <v>0.1288363340076989</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04349900417965444</v>
+        <v>0.04125011698621516</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>248</v>
+      </c>
+      <c r="J52" t="n">
+        <v>431</v>
+      </c>
+      <c r="K52" t="n">
+        <v>34.32836554590506</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2560968997.245024</v>
+        <v>2544253533.331739</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1316611256437037</v>
+        <v>0.1308509214160312</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02270264066448708</v>
+        <v>0.03024575620457298</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>63</v>
+      </c>
+      <c r="J53" t="n">
+        <v>424</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3105113866.772394</v>
+        <v>3503700563.456283</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1416720356094208</v>
+        <v>0.1482670573629894</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03194493838696728</v>
+        <v>0.04314110723363671</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>230</v>
+      </c>
+      <c r="J54" t="n">
+        <v>431</v>
+      </c>
+      <c r="K54" t="n">
+        <v>31.20293431426528</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2374,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4963881593.752172</v>
+        <v>4591521901.660749</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2085640978683333</v>
+        <v>0.2040442045851043</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02295567362610472</v>
+        <v>0.02961233191937318</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>214</v>
+      </c>
+      <c r="J55" t="n">
+        <v>432</v>
+      </c>
+      <c r="K55" t="n">
+        <v>40.48491107240795</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2411,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1181316277.418843</v>
+        <v>1727678410.454457</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1535591527170227</v>
+        <v>0.1088426977890597</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04008556772994079</v>
+        <v>0.04501920562040731</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2452,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3043259725.481995</v>
+        <v>4329377398.712387</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1345798249579868</v>
+        <v>0.154903285858817</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02302844561968378</v>
+        <v>0.02668506791885044</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>188</v>
+      </c>
+      <c r="J57" t="n">
+        <v>432</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1268844022.961427</v>
+        <v>1152104301.488217</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1549135615419971</v>
+        <v>0.1635780673847974</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03269619575634201</v>
+        <v>0.0361568582760074</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2522,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5114905738.159555</v>
+        <v>3749120519.180624</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09035400008999804</v>
+        <v>0.1289918709148153</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04491526225323825</v>
+        <v>0.03194190869817519</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>211</v>
+      </c>
+      <c r="J59" t="n">
+        <v>432</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2551,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2895483793.755707</v>
+        <v>3740775071.825872</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1497908162878929</v>
+        <v>0.1880699240154513</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03204458899022671</v>
+        <v>0.032579432335467</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>82</v>
+      </c>
+      <c r="J60" t="n">
+        <v>432</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2586,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2897185294.540399</v>
+        <v>3348780724.317126</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1438132767643764</v>
+        <v>0.1201176367541037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02336419357856397</v>
+        <v>0.02072020067761468</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2621,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1849790779.415186</v>
+        <v>1490942569.408223</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1626199334299595</v>
+        <v>0.1310294849076177</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04388176599925381</v>
+        <v>0.04770457965019281</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2662,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5507245040.291656</v>
+        <v>4405889079.00651</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09622852907216549</v>
+        <v>0.07087634201352898</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02912182368132585</v>
+        <v>0.03957663709169902</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>215</v>
+      </c>
+      <c r="J63" t="n">
+        <v>432</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5321796296.059084</v>
+        <v>4285634380.999384</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1895430106037508</v>
+        <v>0.1770608486815771</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02793662571110647</v>
+        <v>0.03070116176178282</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>216</v>
+      </c>
+      <c r="J64" t="n">
+        <v>432</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5992784350.44431</v>
+        <v>5056258218.058803</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1172418973620566</v>
+        <v>0.1413795772883262</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02467006035139715</v>
+        <v>0.03040176593698069</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>313</v>
+      </c>
+      <c r="J65" t="n">
+        <v>432</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4453654743.741412</v>
+        <v>5073999240.013748</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1363278231416416</v>
+        <v>0.1105403042516346</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03082589199596068</v>
+        <v>0.03772152102286391</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>213</v>
+      </c>
+      <c r="J66" t="n">
+        <v>431</v>
+      </c>
+      <c r="K66" t="n">
+        <v>38.68149350740339</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3490854024.623494</v>
+        <v>2699450963.976724</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0949070072040326</v>
+        <v>0.08481111948001736</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04773420719792157</v>
+        <v>0.04652004681435451</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4531151648.184973</v>
+        <v>4718351949.289183</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1298355036814692</v>
+        <v>0.1466104640479904</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03595148078589708</v>
+        <v>0.05123724842291934</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>236</v>
+      </c>
+      <c r="J68" t="n">
+        <v>431</v>
+      </c>
+      <c r="K68" t="n">
+        <v>37.64719233026079</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2355943818.890642</v>
+        <v>2020182384.63917</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1655511980352773</v>
+        <v>0.1371393736745182</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05555586830674797</v>
+        <v>0.05835158862477163</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2911,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2553563736.851851</v>
+        <v>3283035263.171876</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06541744125183575</v>
+        <v>0.06313658596555327</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03620273143614139</v>
+        <v>0.03001547502082932</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>59</v>
+      </c>
+      <c r="J70" t="n">
+        <v>432</v>
+      </c>
+      <c r="K70" t="n">
+        <v>41.57348046389725</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4383612377.239009</v>
+        <v>3686316043.018445</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1706816521750722</v>
+        <v>0.1767550735128968</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02964322014631649</v>
+        <v>0.02320460606460142</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>300</v>
+      </c>
+      <c r="J71" t="n">
+        <v>431</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33.61182946267331</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2240861187.501167</v>
+        <v>1834091903.240165</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07724091680903938</v>
+        <v>0.07256841708665691</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04508215391776214</v>
+        <v>0.04735270382447721</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3033207243.971665</v>
+        <v>2443953382.782904</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09706893056691256</v>
+        <v>0.08780224361297566</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03493701998123305</v>
+        <v>0.05004386513528286</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>30</v>
+      </c>
+      <c r="J73" t="n">
+        <v>426</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2899092182.775092</v>
+        <v>4015062230.084898</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1471895901198377</v>
+        <v>0.1324487083912377</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03049509314330056</v>
+        <v>0.03185416208419058</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>126</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1508259442.607875</v>
+        <v>1812584814.840536</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1334271262188842</v>
+        <v>0.1619788347236869</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02977868557409125</v>
+        <v>0.02712190903517014</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3125,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4987536777.472019</v>
+        <v>3499522510.415604</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08371476688526307</v>
+        <v>0.0923733134332298</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03008272583775926</v>
+        <v>0.0320528118123958</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>206</v>
+      </c>
+      <c r="J76" t="n">
+        <v>431</v>
+      </c>
+      <c r="K76" t="n">
+        <v>31.20687296251125</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2012939761.81233</v>
+        <v>1791746683.828736</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1566663306302148</v>
+        <v>0.1690880667870647</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02847913094422604</v>
+        <v>0.02171277160018015</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3191,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2939186915.941317</v>
+        <v>4774751649.934255</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1364526172448781</v>
+        <v>0.08383823422890423</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04614845274345438</v>
+        <v>0.03717274022088851</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>217</v>
+      </c>
+      <c r="J78" t="n">
+        <v>431</v>
+      </c>
+      <c r="K78" t="n">
+        <v>37.62192176354554</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3228,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1374259790.665159</v>
+        <v>1745457452.203221</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1213727207800393</v>
+        <v>0.1327992963462203</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03880693471318281</v>
+        <v>0.03932288444157087</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3269,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5116957487.632678</v>
+        <v>4614279175.762864</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1101752833090667</v>
+        <v>0.08345871026374141</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02832239936600852</v>
+        <v>0.03326613910882044</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>210</v>
+      </c>
+      <c r="J80" t="n">
+        <v>432</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4610727658.571565</v>
+        <v>3332719285.030824</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1328604830877609</v>
+        <v>0.1157244702823493</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02508652546401965</v>
+        <v>0.02451942735474832</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>200</v>
+      </c>
+      <c r="J81" t="n">
+        <v>430</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5327076585.523892</v>
+        <v>5461747380.766661</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1505809018496405</v>
+        <v>0.1860110783528198</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02433520132138947</v>
+        <v>0.02927052048647732</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>291</v>
+      </c>
+      <c r="J82" t="n">
+        <v>432</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2110432034.375912</v>
+        <v>1632543650.321192</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1532109377962854</v>
+        <v>0.1108141543631316</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03228026124742461</v>
+        <v>0.04403171123150021</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1703811160.544581</v>
+        <v>2196775375.62399</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1180035473038617</v>
+        <v>0.08719055300326221</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04650324279631353</v>
+        <v>0.03599919017243405</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2949746917.028383</v>
+        <v>3090307890.567533</v>
       </c>
       <c r="F85" t="n">
-        <v>0.137069059143765</v>
+        <v>0.1144567508365818</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04670390445751633</v>
+        <v>0.04720150693439341</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>57</v>
+      </c>
+      <c r="J85" t="n">
+        <v>430</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1936412001.312565</v>
+        <v>1988045367.18059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1366326459446797</v>
+        <v>0.1619220929935395</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01964863818211341</v>
+        <v>0.02708247066105631</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1437836531.826783</v>
+        <v>1424207656.016119</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1857261274150591</v>
+        <v>0.1294375588832789</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04420852824182843</v>
+        <v>0.04074041059941195</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3352124033.215887</v>
+        <v>2514018881.391287</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1306097379689448</v>
+        <v>0.123300326027185</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03332518034869499</v>
+        <v>0.03362663700728491</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2666778036.392716</v>
+        <v>2731509741.354901</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041959224018116</v>
+        <v>0.1486450393803121</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02738213132068911</v>
+        <v>0.03478214303075415</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1376151204.023865</v>
+        <v>2080942608.883953</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09626335105079832</v>
+        <v>0.1249170746953484</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05012046520389603</v>
+        <v>0.04376115947220291</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1581766301.389165</v>
+        <v>1730345987.905683</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1895636846424397</v>
+        <v>0.1442247183014857</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05904294258156123</v>
+        <v>0.04076107975876174</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1836740381.557831</v>
+        <v>2988999422.171903</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09953039090762901</v>
+        <v>0.1038109208414217</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03349759519131434</v>
+        <v>0.04371656167259271</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3912061680.281135</v>
+        <v>3802775855.109686</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1162422487928712</v>
+        <v>0.1274365190176476</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04358076027799317</v>
+        <v>0.04345626174269031</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>207</v>
+      </c>
+      <c r="J93" t="n">
+        <v>432</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1762358301.259009</v>
+        <v>1578670282.67251</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1255146670546149</v>
+        <v>0.1035629084343091</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03859615055285775</v>
+        <v>0.02620603140448341</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3794,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2851758702.032842</v>
+        <v>2988840011.426866</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1077669180781412</v>
+        <v>0.09619400118360909</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05082271346639885</v>
+        <v>0.03237358096965692</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2026771565.265218</v>
+        <v>1453396803.932253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09339764546798136</v>
+        <v>0.1200284925115586</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02872138026825566</v>
+        <v>0.03547841007644095</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3417647448.447395</v>
+        <v>4649436067.060581</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1317114489494846</v>
+        <v>0.1235792251463771</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02163405314878591</v>
+        <v>0.02574190361430354</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>226</v>
+      </c>
+      <c r="J97" t="n">
+        <v>431</v>
+      </c>
+      <c r="K97" t="n">
+        <v>38.52708811422722</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3376200310.807738</v>
+        <v>3093797141.817241</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1123306101947634</v>
+        <v>0.1049420602054417</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02914410901182455</v>
+        <v>0.02410483317407333</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>109</v>
+      </c>
+      <c r="J98" t="n">
+        <v>426</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2698110869.277164</v>
+        <v>2996532803.133682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1034675715673688</v>
+        <v>0.1155654790761659</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02543653706646173</v>
+        <v>0.0282573906508618</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4592048165.557104</v>
+        <v>3373970858.971616</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1529738203156261</v>
+        <v>0.1666104481153626</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02279980719528401</v>
+        <v>0.02040256424949232</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>201</v>
+      </c>
+      <c r="J100" t="n">
+        <v>429</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3574311001.881841</v>
+        <v>3074578464.526</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1549773364660078</v>
+        <v>0.1564320637950629</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03748205385341696</v>
+        <v>0.04763504662704122</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>38</v>
+      </c>
+      <c r="J101" t="n">
+        <v>400</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
